--- a/sampledata/sample_unclassified_perturbagens.xlsx
+++ b/sampledata/sample_unclassified_perturbagens.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>UP_LINCS_ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Is Restricted</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>95001</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>2014-02-07</t>
   </si>
   <si>
+    <t>UP test comment 1</t>
+  </si>
+  <si>
     <t>95002</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
     <t>2015-07-10</t>
   </si>
   <si>
+    <t>UP test comment 2</t>
+  </si>
+  <si>
     <t>95003</t>
   </si>
   <si>
@@ -138,6 +147,9 @@
   </si>
   <si>
     <t>2015-08-05</t>
+  </si>
+  <si>
+    <t>UP test comment 3</t>
   </si>
 </sst>
 </file>
@@ -148,12 +160,13 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,42 +182,40 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF800000"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF800000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -252,28 +263,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,7 +308,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,10 +320,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,21 +367,22 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.13265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="9.13265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.4030612244898"/>
-    <col collapsed="false" hidden="false" max="27" min="13" style="1" width="9.13265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="27" min="13" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +414,7 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -434,7 +454,9 @@
       <c r="M2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -450,112 +472,121 @@
       <c r="AA2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="G3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="16" t="n">
         <v>123</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="16" t="s">
         <v>21</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="H4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>29</v>
+      <c r="I4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="16" t="n">
         <v>126</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>37</v>
+      <c r="I5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;CTAB]</oddHeader>
     <oddFooter>&amp;CPage PAGE]</oddFooter>
